--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.27361690613991</v>
+        <v>72.79331566666666</v>
       </c>
       <c r="H2">
-        <v>69.27361690613991</v>
+        <v>218.379947</v>
       </c>
       <c r="I2">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141505</v>
       </c>
       <c r="J2">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141506</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N2">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q2">
-        <v>875.2023422988473</v>
+        <v>1203.681441710996</v>
       </c>
       <c r="R2">
-        <v>875.2023422988473</v>
+        <v>10833.13297539896</v>
       </c>
       <c r="S2">
-        <v>0.04905030527738469</v>
+        <v>0.05998214039354322</v>
       </c>
       <c r="T2">
-        <v>0.04905030527738469</v>
+        <v>0.05998214039354324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.27361690613991</v>
+        <v>72.79331566666666</v>
       </c>
       <c r="H3">
-        <v>69.27361690613991</v>
+        <v>218.379947</v>
       </c>
       <c r="I3">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141505</v>
       </c>
       <c r="J3">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141506</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N3">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q3">
-        <v>2811.118152761427</v>
+        <v>2956.910390697747</v>
       </c>
       <c r="R3">
-        <v>2811.118152761427</v>
+        <v>26612.19351627972</v>
       </c>
       <c r="S3">
-        <v>0.157547799976823</v>
+        <v>0.1473494631053252</v>
       </c>
       <c r="T3">
-        <v>0.157547799976823</v>
+        <v>0.1473494631053252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.27361690613991</v>
+        <v>72.79331566666666</v>
       </c>
       <c r="H4">
-        <v>69.27361690613991</v>
+        <v>218.379947</v>
       </c>
       <c r="I4">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141505</v>
       </c>
       <c r="J4">
-        <v>0.2822053945126297</v>
+        <v>0.2828741606141506</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N4">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q4">
-        <v>1349.057386689635</v>
+        <v>1515.937468427621</v>
       </c>
       <c r="R4">
-        <v>1349.057386689635</v>
+        <v>13643.43721584859</v>
       </c>
       <c r="S4">
-        <v>0.07560728925842201</v>
+        <v>0.07554255711528214</v>
       </c>
       <c r="T4">
-        <v>0.07560728925842201</v>
+        <v>0.07554255711528216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>114.82924172502</v>
+        <v>117.1700846666667</v>
       </c>
       <c r="H5">
-        <v>114.82924172502</v>
+        <v>351.510254</v>
       </c>
       <c r="I5">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152877</v>
       </c>
       <c r="J5">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N5">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q5">
-        <v>1450.751755293876</v>
+        <v>1937.478120694472</v>
       </c>
       <c r="R5">
-        <v>1450.751755293876</v>
+        <v>17437.30308625025</v>
       </c>
       <c r="S5">
-        <v>0.08130670250716497</v>
+        <v>0.09654887133569111</v>
       </c>
       <c r="T5">
-        <v>0.08130670250716497</v>
+        <v>0.09654887133569114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>114.82924172502</v>
+        <v>117.1700846666667</v>
       </c>
       <c r="H6">
-        <v>114.82924172502</v>
+        <v>351.510254</v>
       </c>
       <c r="I6">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152877</v>
       </c>
       <c r="J6">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N6">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q6">
-        <v>4659.761974293898</v>
+        <v>4759.52273442673</v>
       </c>
       <c r="R6">
-        <v>4659.761974293898</v>
+        <v>42835.70460984058</v>
       </c>
       <c r="S6">
-        <v>0.2611541769400558</v>
+        <v>0.2371776709100333</v>
       </c>
       <c r="T6">
-        <v>0.2611541769400558</v>
+        <v>0.2371776709100333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>114.82924172502</v>
+        <v>117.1700846666667</v>
       </c>
       <c r="H7">
-        <v>114.82924172502</v>
+        <v>351.510254</v>
       </c>
       <c r="I7">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152877</v>
       </c>
       <c r="J7">
-        <v>0.4677889348047482</v>
+        <v>0.4553218801152878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N7">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q7">
-        <v>2236.222730610414</v>
+        <v>2440.093845132722</v>
       </c>
       <c r="R7">
-        <v>2236.222730610414</v>
+        <v>21960.8446061945</v>
       </c>
       <c r="S7">
-        <v>0.1253280553575274</v>
+        <v>0.1215953378695634</v>
       </c>
       <c r="T7">
-        <v>0.1253280553575274</v>
+        <v>0.1215953378695634</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.3694755379861</v>
+        <v>67.37122333333333</v>
       </c>
       <c r="H8">
-        <v>61.3694755379861</v>
+        <v>202.11367</v>
       </c>
       <c r="I8">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705617</v>
       </c>
       <c r="J8">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705618</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N8">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q8">
-        <v>775.3414811481674</v>
+        <v>1114.02387003556</v>
       </c>
       <c r="R8">
-        <v>775.3414811481674</v>
+        <v>10026.21483032004</v>
       </c>
       <c r="S8">
-        <v>0.0434536500949528</v>
+        <v>0.05551430291992088</v>
       </c>
       <c r="T8">
-        <v>0.0434536500949528</v>
+        <v>0.05551430291992089</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.3694755379861</v>
+        <v>67.37122333333333</v>
       </c>
       <c r="H9">
-        <v>61.3694755379861</v>
+        <v>202.11367</v>
       </c>
       <c r="I9">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705617</v>
       </c>
       <c r="J9">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705618</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N9">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q9">
-        <v>2490.368691792538</v>
+        <v>2736.661580584849</v>
       </c>
       <c r="R9">
-        <v>2490.368691792538</v>
+        <v>24629.95422526365</v>
       </c>
       <c r="S9">
-        <v>0.1395715466949179</v>
+        <v>0.1363739719231037</v>
       </c>
       <c r="T9">
-        <v>0.1395715466949179</v>
+        <v>0.1363739719231037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.3694755379861</v>
+        <v>67.37122333333333</v>
       </c>
       <c r="H10">
-        <v>61.3694755379861</v>
+        <v>202.11367</v>
       </c>
       <c r="I10">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705617</v>
       </c>
       <c r="J10">
-        <v>0.2500056706826222</v>
+        <v>0.2618039592705618</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N10">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q10">
-        <v>1195.129516681134</v>
+        <v>1403.02115392681</v>
       </c>
       <c r="R10">
-        <v>1195.129516681134</v>
+        <v>12627.19038534129</v>
       </c>
       <c r="S10">
-        <v>0.06698047389275145</v>
+        <v>0.06991568442753715</v>
       </c>
       <c r="T10">
-        <v>0.06698047389275145</v>
+        <v>0.06991568442753716</v>
       </c>
     </row>
   </sheetData>
